--- a/Win32/Binaries/Table/hoarstonebase.xlsx
+++ b/Win32/Binaries/Table/hoarstonebase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BOC_A_SVN\京剧猫ACT-design\Data\界石\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\design\Data\界石\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="注释" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="114">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,55 +271,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要玩家持有100000铜钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_bu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_na.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_lu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_du.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_pan.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_shou.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_yan.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_shen.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_chang.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_nian.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_zuo.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#suipian_da.png</t>
+    <t>最大等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界石碎片图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活条件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活条件的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活条件的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未激活状态的图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界石形象的资源（激活后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界石描述（角色信息面板使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇守纳宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守录宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守督宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守判宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守手宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守眼宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守身宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守步宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守唱宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守念宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守做宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>镇守打宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_disable_12.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#hoarstone_piece_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#hoarstone_piece_2.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_3.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_4.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_5.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_6.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_7.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_8.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_9.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_10.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_11.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_piece_12.png</t>
+  </si>
+  <si>
+    <t>最大星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxStar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pieceGetpathId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落途径
+int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片对应铜钱汇率
+一个碎片等于几个铜钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,9 +502,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -750,38 +857,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9"/>
+    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
+    <col min="14" max="14" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,26 +899,26 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="D1" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
       </c>
       <c r="K1" t="s">
         <v>62</v>
@@ -819,10 +927,10 @@
         <v>62</v>
       </c>
       <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
         <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>62</v>
       </c>
       <c r="O1" t="s">
         <v>62</v>
@@ -831,10 +939,10 @@
         <v>62</v>
       </c>
       <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
         <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>62</v>
@@ -843,10 +951,10 @@
         <v>62</v>
       </c>
       <c r="U1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" t="s">
         <v>8</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
       </c>
       <c r="W1" t="s">
         <v>62</v>
@@ -855,13 +963,25 @@
         <v>62</v>
       </c>
       <c r="Y1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -872,76 +992,88 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>68</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>57</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>58</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>65</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>59</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>60</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -951,35 +1083,39 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>100000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"需要玩家等级达到"&amp;H3&amp;"级"</f>
+        <v>需要玩家等级达到16级</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3">
+        <v>51</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -989,35 +1125,39 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>100000</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J14" si="0">"需要玩家等级达到"&amp;H4&amp;"级"</f>
+        <v>需要玩家等级达到20级</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4">
+        <v>52</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1027,27 +1167,39 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
+      <c r="F5" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="I5" t="str">
-        <f>"需要玩家等级达到"&amp;G5&amp;"级"</f>
-        <v>需要玩家等级达到20级</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>需要玩家等级达到25级</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5">
+        <v>53</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1057,27 +1209,39 @@
       <c r="C6">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
+      <c r="F6" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="G6">
-        <v>25</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I14" si="0">"需要玩家等级达到"&amp;G6&amp;"级"</f>
-        <v>需要玩家等级达到25级</v>
-      </c>
-      <c r="Z6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>需要玩家等级达到30级</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6">
+        <v>54</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1087,27 +1251,39 @@
       <c r="C7">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="I7" t="str">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>需要玩家等级达到30级</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+        <v>需要玩家等级达到35级</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7">
+        <v>55</v>
+      </c>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1117,27 +1293,39 @@
       <c r="C8">
         <v>60</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
+      <c r="F8" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G8">
-        <v>35</v>
-      </c>
-      <c r="I8" t="str">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>需要玩家等级达到35级</v>
-      </c>
-      <c r="Z8" s="1" t="s">
+        <v>需要玩家等级达到40级</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC8">
+        <v>56</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1147,27 +1335,39 @@
       <c r="C9">
         <v>70</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>需要玩家等级达到45级</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>需要玩家等级达到40级</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC9">
+        <v>57</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1177,27 +1377,39 @@
       <c r="C10">
         <v>80</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="G10">
-        <v>45</v>
-      </c>
-      <c r="I10" t="str">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>需要玩家等级达到45级</v>
-      </c>
-      <c r="Z10" s="1" t="s">
+        <v>需要玩家等级达到50级</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC10">
+        <v>58</v>
+      </c>
+      <c r="AD10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1207,27 +1419,39 @@
       <c r="C11">
         <v>90</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="I11" t="str">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>55</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>需要玩家等级达到50级</v>
-      </c>
-      <c r="Z11" s="1" t="s">
+        <v>需要玩家等级达到55级</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC11">
+        <v>59</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1237,27 +1461,39 @@
       <c r="C12">
         <v>100</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
+      <c r="F12" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="G12">
-        <v>55</v>
-      </c>
-      <c r="I12" t="str">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>需要玩家等级达到55级</v>
-      </c>
-      <c r="Z12" s="1" t="s">
+        <v>需要玩家等级达到60级</v>
+      </c>
+      <c r="AA12" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC12">
+        <v>510</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1267,27 +1503,39 @@
       <c r="C13">
         <v>110</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
+      <c r="F13" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G13">
-        <v>60</v>
-      </c>
-      <c r="I13" t="str">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>65</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>需要玩家等级达到60级</v>
-      </c>
-      <c r="Z13" s="1" t="s">
+        <v>需要玩家等级达到65级</v>
+      </c>
+      <c r="AA13" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AB13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC13">
+        <v>511</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1297,24 +1545,36 @@
       <c r="C14">
         <v>120</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
+      <c r="F14" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="G14">
-        <v>65</v>
-      </c>
-      <c r="I14" t="str">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>70</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>需要玩家等级达到65级</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>45</v>
+        <v>需要玩家等级达到70级</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14">
+        <v>512</v>
+      </c>
+      <c r="AD14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1327,4 +1587,640 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD14"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>"镇守"&amp;B3&amp;"领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。"</f>
+        <v>镇守纳宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" ref="AB4:AB14" si="0">"镇守"&amp;B4&amp;"领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。"</f>
+        <v>镇守录宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="J5" t="str">
+        <f>"需要玩家等级达到"&amp;H5&amp;"级"</f>
+        <v>需要玩家等级达到20级</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守督宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:J14" si="1">"需要玩家等级达到"&amp;H6&amp;"级"</f>
+        <v>需要玩家等级达到25级</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守判宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>需要玩家等级达到30级</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守手宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>需要玩家等级达到35级</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守眼宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>需要玩家等级达到40级</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守身宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>需要玩家等级达到45级</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守步宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>需要玩家等级达到50级</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守唱宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>55</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>需要玩家等级达到55级</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守念宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC12">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>需要玩家等级达到60级</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守做宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC13">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>65</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>需要玩家等级达到65级</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="0"/>
+        <v>镇守打宗领地的界石，具有深不可测的韵力，但已经被混沌侵蚀。</v>
+      </c>
+      <c r="AC14">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>